--- a/public/uploads/Dummier_data-3.xlsx
+++ b/public/uploads/Dummier_data-3.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianmunoz/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5091C6A5-2E3A-D64B-9367-E2917B4131CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
   <si>
     <t>cas_id</t>
   </si>
@@ -476,36 +485,47 @@
   </si>
   <si>
     <t>UNIVERSITY OF TEHRAN</t>
+  </si>
+  <si>
+    <t>Favorite Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6.0"/>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -514,7 +534,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -524,7 +544,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF969696"/>
@@ -538,6 +564,7 @@
       <bottom style="thin">
         <color rgb="FF969696"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -552,19 +579,23 @@
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFBFBFBF"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FFBFBFBF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
@@ -574,59 +605,58 @@
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFBFBFBF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -816,20 +846,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,38 +877,41 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6">
-        <v>2.225025914E9</v>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>2225025914</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -884,72 +922,74 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7">
-        <v>33080.0</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5">
+        <v>33080</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6">
-        <v>4.040926943E9</v>
+      <c r="M2" s="9"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>4040926943</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7">
-        <v>35137.0</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5">
+        <v>35137</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6">
-        <v>8.914560391E9</v>
+      <c r="N3" s="10"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>8914560391</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -960,36 +1000,37 @@
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="7">
-        <v>34240.0</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="5">
+        <v>34240</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6">
-        <v>3.051706332E9</v>
+      <c r="N4" s="9"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>3051706332</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
@@ -1000,36 +1041,37 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="7">
-        <v>34960.0</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="5">
+        <v>34960</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>6.614544379E9</v>
+      <c r="N5" s="9"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>6614544379</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1040,72 +1082,74 @@
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="7">
-        <v>33605.0</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="5">
+        <v>33605</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6">
-        <v>3.034589529E9</v>
+      <c r="N6" s="9"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>3034589529</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="7">
-        <v>33199.0</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="5">
+        <v>33199</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6">
-        <v>5.395440648E9</v>
+      <c r="M7" s="9"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>5395440648</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
@@ -1116,36 +1160,37 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="7">
-        <v>34955.0</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="5">
+        <v>34955</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6">
-        <v>7.685439E9</v>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>7685439000</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>63</v>
@@ -1156,34 +1201,35 @@
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="7">
-        <v>34825.0</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="5">
+        <v>34825</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6">
-        <v>6.161416833E9</v>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>6161416833</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>68</v>
@@ -1194,34 +1240,35 @@
       <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="7">
-        <v>35779.0</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="5">
+        <v>35779</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>3.903719294E9</v>
+      <c r="M10" s="9"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>3903719294</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>74</v>
@@ -1232,34 +1279,35 @@
       <c r="D11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="7">
-        <v>35609.0</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="5">
+        <v>35609</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6">
-        <v>9.460689721E9</v>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>9460689721</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>63</v>
@@ -1270,34 +1318,35 @@
       <c r="D12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="7">
-        <v>34140.0</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="5">
+        <v>34140</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6">
-        <v>4.666935055E9</v>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>4666935055</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>85</v>
@@ -1308,38 +1357,39 @@
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="7">
-        <v>35470.0</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="5">
+        <v>35470</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6">
-        <v>1.038257328E9</v>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>1038257328</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>91</v>
@@ -1350,70 +1400,72 @@
       <c r="D14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="7">
-        <v>33025.0</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="5">
+        <v>33025</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6">
-        <v>4.989501212E9</v>
+      <c r="M14" s="10"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>4989501212</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="7">
-        <v>35324.0</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="5">
+        <v>35324</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6">
-        <v>1.123288204E9</v>
+      <c r="M15" s="9"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>1123288204</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>68</v>
@@ -1424,38 +1476,39 @@
       <c r="D16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="7">
-        <v>34615.0</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="5">
+        <v>34615</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6">
-        <v>4.944254375E9</v>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>4944254375</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>111</v>
@@ -1466,34 +1519,35 @@
       <c r="D17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="7">
-        <v>36011.0</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="5">
+        <v>36011</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6">
-        <v>6.217465551E9</v>
+      <c r="M17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>6217465551</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>98</v>
@@ -1504,38 +1558,39 @@
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="7">
-        <v>33694.0</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="5">
+        <v>33694</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6">
-        <v>3.85697877E9</v>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>3856978770</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -1546,36 +1601,37 @@
       <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="7">
-        <v>34034.0</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="5">
+        <v>34034</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6">
-        <v>5.632164971E9</v>
+      <c r="N19" s="10"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>5632164971</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>74</v>
@@ -1586,72 +1642,74 @@
       <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="7">
-        <v>36245.0</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="5">
+        <v>36245</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6">
-        <v>7.319817397E9</v>
+      <c r="N20" s="10"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>7319817397</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="7">
-        <v>35386.0</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="5">
+        <v>35386</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6">
-        <v>8.215467098E9</v>
+      <c r="N21" s="10"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>8215467098</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>63</v>
@@ -1662,36 +1720,37 @@
       <c r="D22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="7">
-        <v>34397.0</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="5">
+        <v>34397</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6">
-        <v>9.570272315E9</v>
+      <c r="N22" s="9"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>9570272315</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>142</v>
@@ -1702,36 +1761,37 @@
       <c r="D23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="7">
-        <v>33715.0</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="5">
+        <v>33715</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="6">
-        <v>2.288038276E9</v>
+      <c r="N23" s="10"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>2288038276</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>149</v>
@@ -1742,74 +1802,76 @@
       <c r="D24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="7">
-        <v>33268.0</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="5">
+        <v>33268</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/uploads/Dummier_data-3.xlsx
+++ b/public/uploads/Dummier_data-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianmunoz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5091C6A5-2E3A-D64B-9367-E2917B4131CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DF3B36-7A07-BB44-AE5F-7F9C3EB8E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
   <si>
     <t>cas_id</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>Favorite Name</t>
+  </si>
+  <si>
+    <t>birthday</t>
   </si>
 </sst>
 </file>
@@ -636,8 +639,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,15 +859,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,23 +896,26 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>2225025914</v>
       </c>
@@ -935,20 +941,21 @@
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="1"/>
+      <c r="K2" s="5">
         <v>33080</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="6"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>4040926943</v>
       </c>
@@ -972,22 +979,23 @@
       <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="1"/>
+      <c r="K3" s="5">
         <v>35137</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="10"/>
       <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>8914560391</v>
       </c>
@@ -1013,22 +1021,23 @@
       <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="1"/>
+      <c r="K4" s="5">
         <v>34240</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O4" s="10"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3051706332</v>
       </c>
@@ -1054,22 +1063,23 @@
       <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="1"/>
+      <c r="K5" s="5">
         <v>34960</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="10"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>6614544379</v>
       </c>
@@ -1095,22 +1105,23 @@
       <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="1"/>
+      <c r="K6" s="5">
         <v>33605</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O6" s="10"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>3034589529</v>
       </c>
@@ -1134,20 +1145,21 @@
       <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="1"/>
+      <c r="K7" s="5">
         <v>33199</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>5395440648</v>
       </c>
@@ -1173,22 +1185,23 @@
       <c r="I8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="1"/>
+      <c r="K8" s="5">
         <v>34955</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="10"/>
       <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>7685439000</v>
       </c>
@@ -1214,20 +1227,21 @@
       <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="1"/>
+      <c r="K9" s="5">
         <v>34825</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="10"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O9" s="10"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>6161416833</v>
       </c>
@@ -1253,20 +1267,21 @@
       <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="1"/>
+      <c r="K10" s="5">
         <v>35779</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>3903719294</v>
       </c>
@@ -1292,20 +1307,21 @@
       <c r="I11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="1"/>
+      <c r="K11" s="5">
         <v>35609</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>9460689721</v>
       </c>
@@ -1331,20 +1347,21 @@
       <c r="I12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="1"/>
+      <c r="K12" s="5">
         <v>34140</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="10"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O12" s="10"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>4666935055</v>
       </c>
@@ -1370,24 +1387,25 @@
       <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="1"/>
+      <c r="K13" s="5">
         <v>35470</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>1038257328</v>
       </c>
@@ -1413,20 +1431,21 @@
       <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="1"/>
+      <c r="K14" s="5">
         <v>33025</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="10"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O14" s="10"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>4989501212</v>
       </c>
@@ -1450,20 +1469,21 @@
       <c r="I15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="1"/>
+      <c r="K15" s="5">
         <v>35324</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="6"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>1123288204</v>
       </c>
@@ -1489,24 +1509,25 @@
       <c r="I16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="1"/>
+      <c r="K16" s="5">
         <v>34615</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="O16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>4944254375</v>
       </c>
@@ -1532,20 +1553,21 @@
       <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="1"/>
+      <c r="K17" s="5">
         <v>36011</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="10"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="10"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>6217465551</v>
       </c>
@@ -1571,24 +1593,25 @@
       <c r="I18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="1"/>
+      <c r="K18" s="5">
         <v>33694</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="O18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>3856978770</v>
       </c>
@@ -1614,22 +1637,23 @@
       <c r="I19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="1"/>
+      <c r="K19" s="5">
         <v>34034</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N19" s="10"/>
       <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>5632164971</v>
       </c>
@@ -1655,20 +1679,21 @@
       <c r="I20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="1"/>
+      <c r="K20" s="5">
         <v>36245</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>7319817397</v>
       </c>
@@ -1692,22 +1717,23 @@
       <c r="I21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="1"/>
+      <c r="K21" s="5">
         <v>35386</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N21" s="10"/>
       <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>8215467098</v>
       </c>
@@ -1733,22 +1759,23 @@
       <c r="I22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="1"/>
+      <c r="K22" s="5">
         <v>34397</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O22" s="10"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>9570272315</v>
       </c>
@@ -1774,22 +1801,23 @@
       <c r="I23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="1"/>
+      <c r="K23" s="5">
         <v>33715</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="N23" s="10"/>
       <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>2288038276</v>
       </c>
@@ -1815,20 +1843,21 @@
       <c r="I24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="1"/>
+      <c r="K24" s="5">
         <v>33268</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="6"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1844,33 +1873,34 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="N21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
